--- a/src/test/resources/testdata/LoginData.xlsx
+++ b/src/test/resources/testdata/LoginData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Selenium Assignment\ecommerce-automation-framework\src\test\resources\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CD43FBD-57D2-4BB2-BF68-4EBACCFDADD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81B4DD40-CAAC-49C0-A783-20DAD79C613F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="12">
   <si>
     <t>standard_user</t>
   </si>
@@ -55,6 +55,12 @@
   </si>
   <si>
     <t>wrong_pass</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rajath </t>
+  </si>
+  <si>
+    <t>Pai</t>
   </si>
 </sst>
 </file>
@@ -126,13 +132,13 @@
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -418,7 +424,7 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:C4"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -429,53 +435,59 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="2" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
+    <row r="5" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>2</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/test/resources/testdata/LoginData.xlsx
+++ b/src/test/resources/testdata/LoginData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Selenium Assignment\ecommerce-automation-framework\src\test\resources\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81B4DD40-CAAC-49C0-A783-20DAD79C613F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6298304-8513-4E1B-AE49-90A4C79A6E41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
   <si>
     <t>standard_user</t>
   </si>
@@ -55,12 +55,6 @@
   </si>
   <si>
     <t>wrong_pass</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rajath </t>
-  </si>
-  <si>
-    <t>Pai</t>
   </si>
 </sst>
 </file>
@@ -130,15 +124,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -421,10 +412,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="A5" sqref="A5:XFD5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -478,17 +469,6 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
